--- a/clean/name/08011C.xlsx
+++ b/clean/name/08011C.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D7">
@@ -667,7 +667,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW SD</t>
         </is>
       </c>
       <c r="D16">
@@ -800,6 +800,11 @@
           <t>PDW</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PDW</t>
+        </is>
+      </c>
       <c r="D23">
         <v>5087854</v>
       </c>
@@ -1050,6 +1055,11 @@
           <t>紅血球分佈變異數</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>RDW CV</t>
+        </is>
+      </c>
       <c r="D36">
         <v>1654187</v>
       </c>
@@ -1185,6 +1195,11 @@
           <t>PCT</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PCT</t>
+        </is>
+      </c>
       <c r="D43">
         <v>847958</v>
       </c>
@@ -1300,11 +1315,6 @@
           <t>平均紅血球容積</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>MCH</t>
-        </is>
-      </c>
       <c r="D49">
         <v>981081</v>
       </c>
@@ -1517,7 +1527,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>MCHC</t>
         </is>
       </c>
       <c r="D60">
@@ -1810,6 +1820,11 @@
           <t>紅血球平均血紅素</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>MCH</t>
+        </is>
+      </c>
       <c r="D75">
         <v>438691</v>
       </c>
@@ -1885,6 +1900,11 @@
           <t>紅血球分佈變異係數</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>RDW CV</t>
+        </is>
+      </c>
       <c r="D79">
         <v>420738</v>
       </c>
@@ -1972,7 +1992,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PDW</t>
         </is>
       </c>
       <c r="D84">
@@ -2120,6 +2140,11 @@
           <t>平均紅血球血紅素量</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>MCH</t>
+        </is>
+      </c>
       <c r="D92">
         <v>490736</v>
       </c>
@@ -2307,7 +2332,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>MPV</t>
         </is>
       </c>
       <c r="D102">
@@ -2355,6 +2380,11 @@
           <t>平均紅血球血色素濃度</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MCHC</t>
+        </is>
+      </c>
       <c r="D105">
         <v>444136</v>
       </c>
@@ -2762,7 +2792,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW SD</t>
         </is>
       </c>
       <c r="D126">
@@ -2802,7 +2832,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D128">
@@ -2882,7 +2912,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D132">
@@ -3115,6 +3145,11 @@
           <t>平均紅血球血色素</t>
         </is>
       </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>MCH</t>
+        </is>
+      </c>
       <c r="D145">
         <v>392013</v>
       </c>
@@ -3132,7 +3167,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PDW</t>
         </is>
       </c>
       <c r="D146">
@@ -3172,7 +3207,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D148">
@@ -3667,7 +3702,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PDW</t>
         </is>
       </c>
       <c r="D173">
@@ -3707,7 +3742,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D175">
@@ -3875,6 +3910,11 @@
           <t>HCt</t>
         </is>
       </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
       <c r="D184">
         <v>227048</v>
       </c>
@@ -3965,6 +4005,11 @@
           <t>HEMOGLOBIN(HB)</t>
         </is>
       </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Hb</t>
+        </is>
+      </c>
       <c r="D189">
         <v>202449</v>
       </c>
@@ -4745,6 +4790,11 @@
           <t>平均紅血球血紅素</t>
         </is>
       </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>MCH</t>
+        </is>
+      </c>
       <c r="D229">
         <v>150162</v>
       </c>
@@ -5140,6 +5190,11 @@
           <t>WB3:PDW:PDW</t>
         </is>
       </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>PDW</t>
+        </is>
+      </c>
       <c r="D249">
         <v>134032</v>
       </c>
@@ -5155,6 +5210,11 @@
           <t>白血球</t>
         </is>
       </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D250">
         <v>546516</v>
       </c>
@@ -5412,7 +5472,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D263">
@@ -5625,6 +5685,11 @@
           <t>MVC平均血球容積</t>
         </is>
       </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>MCV</t>
+        </is>
+      </c>
       <c r="D274">
         <v>115707</v>
       </c>
@@ -5742,7 +5807,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D280">
@@ -5882,7 +5947,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PDW</t>
         </is>
       </c>
       <c r="D287">
@@ -6162,7 +6227,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D301">
@@ -6522,7 +6587,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW SD</t>
         </is>
       </c>
       <c r="D319">
@@ -7102,7 +7167,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW SD</t>
         </is>
       </c>
       <c r="D350">
@@ -7142,7 +7207,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D352">
@@ -7352,7 +7417,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>MCHC</t>
         </is>
       </c>
       <c r="D363">
@@ -7372,7 +7437,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW SD</t>
         </is>
       </c>
       <c r="D364">
@@ -7472,7 +7537,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D369">
@@ -8347,7 +8412,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D417">
@@ -8405,6 +8470,11 @@
           <t>M.C.H. 紅血球平均血紅素</t>
         </is>
       </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>MCH</t>
+        </is>
+      </c>
       <c r="D420">
         <v>48975</v>
       </c>
@@ -8442,7 +8512,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>MCHC</t>
         </is>
       </c>
       <c r="D422">
@@ -8512,7 +8582,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW SD</t>
         </is>
       </c>
       <c r="D426">
@@ -8592,7 +8662,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D430">
@@ -8735,6 +8805,11 @@
           <t>M.C.H.</t>
         </is>
       </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>MCH</t>
+        </is>
+      </c>
       <c r="D438">
         <v>44588</v>
       </c>
@@ -8997,7 +9072,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>MCHC</t>
         </is>
       </c>
       <c r="D453">
@@ -9242,7 +9317,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D466">
@@ -9382,7 +9457,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D473">
@@ -9402,7 +9477,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW SD</t>
         </is>
       </c>
       <c r="D474">
@@ -9422,7 +9497,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PDW</t>
         </is>
       </c>
       <c r="D475">
@@ -9440,11 +9515,6 @@
           <t>P-LCR(血小板-大細胞比率)</t>
         </is>
       </c>
-      <c r="C476" t="inlineStr">
-        <is>
-          <t>Platelet_Count</t>
-        </is>
-      </c>
       <c r="D476">
         <v>36146</v>
       </c>
@@ -9460,6 +9530,11 @@
           <t>M.C.H.C.</t>
         </is>
       </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>MCHC</t>
+        </is>
+      </c>
       <c r="D477">
         <v>44402</v>
       </c>
@@ -9685,6 +9760,11 @@
           <t>M.C.V</t>
         </is>
       </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>MCV</t>
+        </is>
+      </c>
       <c r="D489">
         <v>39567</v>
       </c>
@@ -9700,6 +9780,11 @@
           <t>平均血球容積</t>
         </is>
       </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>MCV</t>
+        </is>
+      </c>
       <c r="D490">
         <v>56852</v>
       </c>
@@ -9785,6 +9870,11 @@
           <t>Monocytes(單核白血球)</t>
         </is>
       </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D495">
         <v>38867</v>
       </c>
@@ -9830,6 +9920,11 @@
           <t>Lymphocytes(淋巴白血球)</t>
         </is>
       </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D498">
         <v>38867</v>
       </c>
@@ -9945,6 +10040,11 @@
           <t>血液白血球</t>
         </is>
       </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D504">
         <v>32757</v>
       </c>
@@ -10077,7 +10177,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D511">
@@ -10335,6 +10435,11 @@
           <t>平均血球血色素</t>
         </is>
       </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>MCH</t>
+        </is>
+      </c>
       <c r="D524">
         <v>39083</v>
       </c>
@@ -10487,7 +10592,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D532">
@@ -10527,7 +10632,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW SD</t>
         </is>
       </c>
       <c r="D534">
@@ -10945,6 +11050,11 @@
           <t>PDW  (8.8-16.5)</t>
         </is>
       </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>PDW</t>
+        </is>
+      </c>
       <c r="D557">
         <v>24029</v>
       </c>
@@ -11055,6 +11165,11 @@
           <t>HEMOGLOBIN</t>
         </is>
       </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Hb</t>
+        </is>
+      </c>
       <c r="D563">
         <v>23260</v>
       </c>
@@ -11182,7 +11297,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>MCHC</t>
         </is>
       </c>
       <c r="D570">
@@ -11237,7 +11352,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D573">
@@ -11455,6 +11570,11 @@
           <t>白血球數</t>
         </is>
       </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D584">
         <v>21309</v>
       </c>
@@ -11492,7 +11612,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PDW</t>
         </is>
       </c>
       <c r="D586">
@@ -11512,7 +11632,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D587">
@@ -11602,7 +11722,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D592">
@@ -11872,7 +11992,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D606">
@@ -12087,7 +12207,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D617">
@@ -12392,7 +12512,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D635">
@@ -12472,7 +12592,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D639">
@@ -12617,7 +12737,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PDW</t>
         </is>
       </c>
       <c r="D647">
@@ -12657,7 +12777,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D649">
@@ -12842,7 +12962,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D659">
@@ -12882,7 +13002,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PDW</t>
         </is>
       </c>
       <c r="D661">
@@ -12962,7 +13082,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PDW</t>
         </is>
       </c>
       <c r="D665">
@@ -13287,7 +13407,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PDW</t>
         </is>
       </c>
       <c r="D682">
@@ -13515,11 +13635,6 @@
           <t>RDW-CV(STAT)</t>
         </is>
       </c>
-      <c r="C694" t="inlineStr">
-        <is>
-          <t>RDW</t>
-        </is>
-      </c>
       <c r="D694">
         <v>10106</v>
       </c>
@@ -13957,7 +14072,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PDW</t>
         </is>
       </c>
       <c r="D717">
@@ -13975,6 +14090,11 @@
           <t>平均血球血素濃度</t>
         </is>
       </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>MCHC</t>
+        </is>
+      </c>
       <c r="D718">
         <v>9055</v>
       </c>
@@ -14047,7 +14167,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D722">
@@ -14247,7 +14367,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D732">
@@ -14465,11 +14585,6 @@
           <t>全套血液檢查 Ｉ CBC-I (WBC，RB</t>
         </is>
       </c>
-      <c r="C744" t="inlineStr">
-        <is>
-          <t>WBC</t>
-        </is>
-      </c>
       <c r="D744">
         <v>8354</v>
       </c>
@@ -14675,6 +14790,11 @@
           <t>M.C.H</t>
         </is>
       </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>MCH</t>
+        </is>
+      </c>
       <c r="D755">
         <v>11373</v>
       </c>
@@ -15167,7 +15287,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D781">
@@ -15185,6 +15305,11 @@
           <t>M.C.H.C</t>
         </is>
       </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>MCHC</t>
+        </is>
+      </c>
       <c r="D782">
         <v>11675</v>
       </c>
@@ -15202,7 +15327,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D783">
@@ -15667,7 +15792,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>MCHC</t>
         </is>
       </c>
       <c r="D809">
@@ -15685,6 +15810,11 @@
           <t>M.C.H 平均紅血球血紅素</t>
         </is>
       </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>MCH</t>
+        </is>
+      </c>
       <c r="D810">
         <v>5419</v>
       </c>
@@ -15907,7 +16037,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>MCHC</t>
         </is>
       </c>
       <c r="D822">
@@ -16782,7 +16912,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D870">
@@ -17385,6 +17515,11 @@
           <t>H.G.B</t>
         </is>
       </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>Hb</t>
+        </is>
+      </c>
       <c r="D904">
         <v>5265</v>
       </c>
@@ -17422,7 +17557,7 @@
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D906">
@@ -17707,7 +17842,7 @@
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>MCHC</t>
         </is>
       </c>
       <c r="D923">
@@ -17725,6 +17860,11 @@
           <t>M.C.H 紅血球平均血紅素</t>
         </is>
       </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>MCH</t>
+        </is>
+      </c>
       <c r="D924">
         <v>2841</v>
       </c>
@@ -18182,7 +18322,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>MCHC</t>
         </is>
       </c>
       <c r="D950">
@@ -18902,7 +19042,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D988">
@@ -18942,7 +19082,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PDW</t>
         </is>
       </c>
       <c r="D990">
@@ -19377,7 +19517,7 @@
       </c>
       <c r="C1013" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW SD</t>
         </is>
       </c>
       <c r="D1013">
@@ -19427,7 +19567,7 @@
       </c>
       <c r="C1016" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>MCHC</t>
         </is>
       </c>
       <c r="D1016">
@@ -19520,6 +19660,11 @@
           <t>白血球(血液)</t>
         </is>
       </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D1021">
         <v>1561</v>
       </c>
@@ -19842,7 +19987,7 @@
       </c>
       <c r="C1038" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>MCHC</t>
         </is>
       </c>
       <c r="D1038">
@@ -19860,6 +20005,11 @@
           <t>M.C.H.  紅血球平均血紅素</t>
         </is>
       </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>MCH</t>
+        </is>
+      </c>
       <c r="D1039">
         <v>1387</v>
       </c>
@@ -21547,7 +21697,7 @@
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>MCHC</t>
         </is>
       </c>
       <c r="D1130">
@@ -21892,7 +22042,7 @@
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>MCHC</t>
         </is>
       </c>
       <c r="D1150">
@@ -22067,7 +22217,7 @@
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PDW</t>
         </is>
       </c>
       <c r="D1160">
@@ -22260,11 +22410,6 @@
           <t>停用-平均紅血球容積</t>
         </is>
       </c>
-      <c r="C1170" t="inlineStr">
-        <is>
-          <t>MCH</t>
-        </is>
-      </c>
       <c r="D1170">
         <v>723</v>
       </c>
@@ -22422,7 +22567,7 @@
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>MCHC</t>
         </is>
       </c>
       <c r="D1179">
@@ -22755,6 +22900,11 @@
           <t>單核白血球百分比</t>
         </is>
       </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D1199">
         <v>641</v>
       </c>
@@ -24347,7 +24497,7 @@
       </c>
       <c r="C1288" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D1288">
@@ -24382,7 +24532,7 @@
       </c>
       <c r="C1290" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW SD</t>
         </is>
       </c>
       <c r="D1290">
@@ -24995,6 +25145,11 @@
           <t>平均血紅素</t>
         </is>
       </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>MCH</t>
+        </is>
+      </c>
       <c r="D1323">
         <v>263</v>
       </c>
@@ -25250,6 +25405,11 @@
           <t>紅血球平均血球容積</t>
         </is>
       </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>MCV</t>
+        </is>
+      </c>
       <c r="D1338">
         <v>237</v>
       </c>
@@ -25347,7 +25507,7 @@
       </c>
       <c r="C1344" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW SD</t>
         </is>
       </c>
       <c r="D1344">
@@ -25725,11 +25885,6 @@
           <t>大血小板比率</t>
         </is>
       </c>
-      <c r="C1366" t="inlineStr">
-        <is>
-          <t>Platelet_Count</t>
-        </is>
-      </c>
       <c r="D1366">
         <v>187</v>
       </c>
@@ -25747,7 +25902,7 @@
       </c>
       <c r="C1367" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PDW</t>
         </is>
       </c>
       <c r="D1367">
@@ -26245,6 +26400,11 @@
           <t>白血球分類計數</t>
         </is>
       </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D1394">
         <v>142</v>
       </c>
@@ -27557,7 +27717,7 @@
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D1472">
@@ -28125,6 +28285,11 @@
           <t>平均細胞血紅蛋白濃度</t>
         </is>
       </c>
+      <c r="C1505" t="inlineStr">
+        <is>
+          <t>MCHC</t>
+        </is>
+      </c>
       <c r="D1505">
         <v>66</v>
       </c>
@@ -28567,7 +28732,7 @@
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>MCHC</t>
         </is>
       </c>
       <c r="D1530">
@@ -31317,7 +31482,7 @@
       </c>
       <c r="C1695" t="inlineStr">
         <is>
-          <t>Platelet_Count</t>
+          <t>PDW</t>
         </is>
       </c>
       <c r="D1695">
@@ -32167,7 +32332,7 @@
       </c>
       <c r="C1748" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D1748">
@@ -33065,6 +33230,11 @@
           <t>346                 M.C.H.C.</t>
         </is>
       </c>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t>MCHC</t>
+        </is>
+      </c>
       <c r="D1803">
         <v>14</v>
       </c>
@@ -33120,6 +33290,11 @@
           <t>344                 M.C.H.</t>
         </is>
       </c>
+      <c r="C1806" t="inlineStr">
+        <is>
+          <t>MCH</t>
+        </is>
+      </c>
       <c r="D1806">
         <v>14</v>
       </c>
@@ -34107,7 +34282,7 @@
       </c>
       <c r="C1864" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D1864">

--- a/clean/name/08011C.xlsx
+++ b/clean/name/08011C.xlsx
@@ -11650,11 +11650,6 @@
           <t>紅血球分佈寬度-標準偏差</t>
         </is>
       </c>
-      <c r="C588" t="inlineStr">
-        <is>
-          <t>RDW</t>
-        </is>
-      </c>
       <c r="D588">
         <v>19338</v>
       </c>
@@ -16852,7 +16847,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>RDW CV</t>
         </is>
       </c>
       <c r="D867">
@@ -17610,11 +17605,6 @@
           <t>HbA1C</t>
         </is>
       </c>
-      <c r="C909" t="inlineStr">
-        <is>
-          <t>Hb</t>
-        </is>
-      </c>
       <c r="D909">
         <v>3007</v>
       </c>
@@ -21480,6 +21470,11 @@
           <t>08003 HB</t>
         </is>
       </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>Hb</t>
+        </is>
+      </c>
       <c r="D1118">
         <v>1556</v>
       </c>
@@ -23725,6 +23720,11 @@
           <t>hemoglobin</t>
         </is>
       </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>Hb</t>
+        </is>
+      </c>
       <c r="D1246">
         <v>527</v>
       </c>
@@ -26285,6 +26285,11 @@
           <t>Anaerobic #1</t>
         </is>
       </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>RBC</t>
+        </is>
+      </c>
       <c r="D1388">
         <v>144</v>
       </c>
@@ -30460,6 +30465,11 @@
           <t>Anaerobic #2</t>
         </is>
       </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>RBC</t>
+        </is>
+      </c>
       <c r="D1633">
         <v>38</v>
       </c>
@@ -30510,6 +30520,11 @@
           <t>Blood HB</t>
         </is>
       </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>Hb</t>
+        </is>
+      </c>
       <c r="D1636">
         <v>37</v>
       </c>
@@ -30830,6 +30845,11 @@
           <t>Anaerobic#1</t>
         </is>
       </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>RBC</t>
+        </is>
+      </c>
       <c r="D1655">
         <v>33</v>
       </c>
@@ -33080,6 +33100,11 @@
           <t>CBC/HB</t>
         </is>
       </c>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t>Hb</t>
+        </is>
+      </c>
       <c r="D1794">
         <v>16</v>
       </c>
@@ -33490,6 +33515,11 @@
           <t>08 Platlet</t>
         </is>
       </c>
+      <c r="C1817" t="inlineStr">
+        <is>
+          <t>Platelet_Count</t>
+        </is>
+      </c>
       <c r="D1817">
         <v>22</v>
       </c>
@@ -34555,6 +34585,11 @@
           <t>wbc</t>
         </is>
       </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D1880">
         <v>9</v>
       </c>
@@ -34775,6 +34810,11 @@
           <t>rbc</t>
         </is>
       </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>RBC</t>
+        </is>
+      </c>
       <c r="D1893">
         <v>8</v>
       </c>
@@ -35763,6 +35803,11 @@
       <c r="B1955" t="inlineStr">
         <is>
           <t>hb</t>
+        </is>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>Hb</t>
         </is>
       </c>
       <c r="D1955">
